--- a/Area de Proceso PPQA/MSPQA/MSPQA_V0.1_2016.xlsx
+++ b/Area de Proceso PPQA/MSPQA/MSPQA_V0.1_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15330" windowHeight="9360" tabRatio="581" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15330" windowHeight="9360" tabRatio="581"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="21" r:id="rId1"/>
@@ -4208,57 +4208,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4286,32 +4235,56 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="47" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="48" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="50" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="51" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4352,55 +4325,31 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="47" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="48" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="50" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="52" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="51" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4409,17 +4358,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="52" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4433,7 +4385,31 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="54" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4454,26 +4430,50 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4499,6 +4499,21 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4512,21 +4527,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5134,8 +5134,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202409984"/>
-        <c:axId val="202410544"/>
+        <c:axId val="302646176"/>
+        <c:axId val="279705184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5246,11 +5246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202779760"/>
-        <c:axId val="202780320"/>
+        <c:axId val="289087552"/>
+        <c:axId val="289088112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202409984"/>
+        <c:axId val="302646176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5285,7 +5285,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202410544"/>
+        <c:crossAx val="279705184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5295,7 +5295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202410544"/>
+        <c:axId val="279705184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5330,12 +5330,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202409984"/>
+        <c:crossAx val="302646176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="202779760"/>
+        <c:axId val="289087552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5344,7 +5344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202780320"/>
+        <c:crossAx val="289088112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5352,7 +5352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202780320"/>
+        <c:axId val="289088112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5362,7 +5362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202779760"/>
+        <c:crossAx val="289087552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6103,11 +6103,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202782560"/>
-        <c:axId val="202783120"/>
+        <c:axId val="289090352"/>
+        <c:axId val="289090912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202782560"/>
+        <c:axId val="289090352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6142,7 +6142,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202783120"/>
+        <c:crossAx val="289090912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6152,7 +6152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202783120"/>
+        <c:axId val="289090912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6187,7 +6187,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202782560"/>
+        <c:crossAx val="289090352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6723,11 +6723,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="202786480"/>
-        <c:axId val="202787040"/>
+        <c:axId val="291140256"/>
+        <c:axId val="291140816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202786480"/>
+        <c:axId val="291140256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6762,7 +6762,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202787040"/>
+        <c:crossAx val="291140816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6772,7 +6772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202787040"/>
+        <c:axId val="291140816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6817,7 +6817,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202786480"/>
+        <c:crossAx val="291140256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7220,11 +7220,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="203243312"/>
-        <c:axId val="203243872"/>
+        <c:axId val="202508704"/>
+        <c:axId val="202509264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203243312"/>
+        <c:axId val="202508704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7259,7 +7259,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203243872"/>
+        <c:crossAx val="202509264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7269,7 +7269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203243872"/>
+        <c:axId val="202509264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7314,7 +7314,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203243312"/>
+        <c:crossAx val="202508704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9321,7 +9321,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
@@ -9465,19 +9465,19 @@
       <c r="B3" s="184" t="s">
         <v>661</v>
       </c>
-      <c r="C3" s="264" t="s">
+      <c r="C3" s="247" t="s">
         <v>662</v>
       </c>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="266"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="249"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B4" s="255"/>
-      <c r="C4" s="255"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
+      <c r="B4" s="257"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="B5" s="182" t="s">
@@ -9489,13 +9489,13 @@
       <c r="F5" s="148"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B6" s="267" t="s">
+      <c r="B6" s="250" t="s">
         <v>474</v>
       </c>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="269"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="252"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="B7" s="183"/>
@@ -9518,11 +9518,11 @@
         <v>250</v>
       </c>
       <c r="C9" s="171"/>
-      <c r="D9" s="270" t="s">
+      <c r="D9" s="253" t="s">
         <v>251</v>
       </c>
-      <c r="E9" s="271"/>
-      <c r="F9" s="272"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="255"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="B10" s="170"/>
@@ -9536,11 +9536,11 @@
         <v>464</v>
       </c>
       <c r="C11" s="169"/>
-      <c r="D11" s="254" t="s">
+      <c r="D11" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="254"/>
-      <c r="F11" s="254"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="B12" s="174"/>
@@ -9554,11 +9554,11 @@
         <v>464</v>
       </c>
       <c r="C13" s="169"/>
-      <c r="D13" s="254" t="s">
+      <c r="D13" s="256" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="254"/>
-      <c r="F13" s="254"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
     </row>
     <row r="14" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
       <c r="B14" s="176"/>
@@ -9571,11 +9571,11 @@
         <v>464</v>
       </c>
       <c r="C15" s="169"/>
-      <c r="D15" s="254" t="s">
+      <c r="D15" s="256" t="s">
         <v>465</v>
       </c>
-      <c r="E15" s="254"/>
-      <c r="F15" s="254"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
     </row>
     <row r="16" spans="1:6" customFormat="1" ht="12.75">
       <c r="B16" s="176"/>
@@ -9588,11 +9588,11 @@
         <v>464</v>
       </c>
       <c r="C17" s="169"/>
-      <c r="D17" s="254" t="s">
+      <c r="D17" s="256" t="s">
         <v>466</v>
       </c>
-      <c r="E17" s="254"/>
-      <c r="F17" s="254"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
     </row>
     <row r="18" spans="1:6" customFormat="1" ht="12.75">
       <c r="B18" s="179"/>
@@ -9604,296 +9604,304 @@
       <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="257" t="s">
+      <c r="B20" s="260" t="s">
         <v>325</v>
       </c>
-      <c r="C20" s="258"/>
-      <c r="D20" s="258"/>
-      <c r="E20" s="258"/>
-      <c r="F20" s="259"/>
+      <c r="C20" s="261"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="261"/>
+      <c r="F20" s="262"/>
     </row>
     <row r="21" spans="1:6" customFormat="1" ht="13.5" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="260" t="s">
+      <c r="C21" s="263" t="s">
         <v>251</v>
       </c>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="262"/>
+      <c r="D21" s="264"/>
+      <c r="E21" s="264"/>
+      <c r="F21" s="265"/>
     </row>
     <row r="22" spans="1:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C22" s="247" t="s">
+      <c r="C22" s="259" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="247"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="247"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
     </row>
     <row r="23" spans="1:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="215" t="s">
         <v>479</v>
       </c>
-      <c r="C23" s="247" t="s">
+      <c r="C23" s="259" t="s">
         <v>327</v>
       </c>
-      <c r="D23" s="247"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="259"/>
     </row>
     <row r="24" spans="1:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B24" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="247" t="s">
+      <c r="C24" s="259" t="s">
         <v>284</v>
       </c>
-      <c r="D24" s="247"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="247"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="259"/>
+      <c r="F24" s="259"/>
     </row>
     <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="5"/>
     </row>
     <row r="28" spans="1:6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B28" s="257" t="s">
+      <c r="B28" s="260" t="s">
         <v>480</v>
       </c>
-      <c r="C28" s="258"/>
-      <c r="D28" s="258"/>
-      <c r="E28" s="258"/>
-      <c r="F28" s="259"/>
+      <c r="C28" s="261"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="261"/>
+      <c r="F28" s="262"/>
     </row>
     <row r="29" spans="1:6" customFormat="1" ht="13.5" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="260" t="s">
+      <c r="C29" s="263" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="261"/>
-      <c r="E29" s="261"/>
-      <c r="F29" s="262"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="264"/>
+      <c r="F29" s="265"/>
     </row>
     <row r="30" spans="1:6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B30" s="263" t="s">
+      <c r="B30" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="263"/>
-      <c r="D30" s="263"/>
-      <c r="E30" s="263"/>
-      <c r="F30" s="263"/>
+      <c r="C30" s="266"/>
+      <c r="D30" s="266"/>
+      <c r="E30" s="266"/>
+      <c r="F30" s="266"/>
     </row>
     <row r="31" spans="1:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B31" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C31" s="247" t="s">
+      <c r="C31" s="259" t="s">
         <v>289</v>
       </c>
-      <c r="D31" s="247"/>
-      <c r="E31" s="247"/>
-      <c r="F31" s="247"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="259"/>
+      <c r="F31" s="259"/>
     </row>
     <row r="32" spans="1:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B32" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="C32" s="247" t="s">
+      <c r="C32" s="259" t="s">
         <v>469</v>
       </c>
-      <c r="D32" s="247"/>
-      <c r="E32" s="247"/>
-      <c r="F32" s="247"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="259"/>
+      <c r="F32" s="259"/>
     </row>
     <row r="33" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B33" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="C33" s="247" t="s">
+      <c r="C33" s="259" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="247"/>
-      <c r="E33" s="247"/>
-      <c r="F33" s="247"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="259"/>
+      <c r="F33" s="259"/>
     </row>
     <row r="34" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B34" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="C34" s="247" t="s">
+      <c r="C34" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="247"/>
-      <c r="E34" s="247"/>
-      <c r="F34" s="247"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="259"/>
+      <c r="F34" s="259"/>
     </row>
     <row r="35" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B35" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C35" s="247" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="247"/>
-      <c r="E35" s="247"/>
-      <c r="F35" s="247"/>
+      <c r="C35" s="259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="259"/>
+      <c r="E35" s="259"/>
+      <c r="F35" s="259"/>
     </row>
     <row r="36" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B36" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="C36" s="247" t="s">
+      <c r="C36" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="247"/>
-      <c r="E36" s="247"/>
-      <c r="F36" s="247"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="259"/>
     </row>
     <row r="37" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B37" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="247" t="s">
+      <c r="C37" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="247"/>
-      <c r="E37" s="247"/>
-      <c r="F37" s="247"/>
+      <c r="D37" s="259"/>
+      <c r="E37" s="259"/>
+      <c r="F37" s="259"/>
     </row>
     <row r="38" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B38" s="251" t="s">
+      <c r="B38" s="270" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="252"/>
-      <c r="D38" s="252"/>
-      <c r="E38" s="252"/>
-      <c r="F38" s="253"/>
+      <c r="C38" s="271"/>
+      <c r="D38" s="271"/>
+      <c r="E38" s="271"/>
+      <c r="F38" s="272"/>
     </row>
     <row r="39" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B39" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C39" s="248" t="s">
+      <c r="C39" s="267" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="249"/>
-      <c r="E39" s="249"/>
-      <c r="F39" s="250"/>
+      <c r="D39" s="268"/>
+      <c r="E39" s="268"/>
+      <c r="F39" s="269"/>
     </row>
     <row r="40" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B40" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C40" s="247" t="s">
+      <c r="C40" s="259" t="s">
         <v>290</v>
       </c>
-      <c r="D40" s="247"/>
-      <c r="E40" s="247"/>
-      <c r="F40" s="247"/>
+      <c r="D40" s="259"/>
+      <c r="E40" s="259"/>
+      <c r="F40" s="259"/>
     </row>
     <row r="41" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B41" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C41" s="247" t="s">
+      <c r="C41" s="259" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="247"/>
-      <c r="E41" s="247"/>
-      <c r="F41" s="247"/>
+      <c r="D41" s="259"/>
+      <c r="E41" s="259"/>
+      <c r="F41" s="259"/>
     </row>
     <row r="42" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B42" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C42" s="247" t="s">
+      <c r="C42" s="259" t="s">
         <v>285</v>
       </c>
-      <c r="D42" s="247"/>
-      <c r="E42" s="247"/>
-      <c r="F42" s="247"/>
+      <c r="D42" s="259"/>
+      <c r="E42" s="259"/>
+      <c r="F42" s="259"/>
     </row>
     <row r="43" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B43" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="247" t="s">
+      <c r="C43" s="259" t="s">
         <v>248</v>
       </c>
-      <c r="D43" s="247"/>
-      <c r="E43" s="247"/>
-      <c r="F43" s="247"/>
+      <c r="D43" s="259"/>
+      <c r="E43" s="259"/>
+      <c r="F43" s="259"/>
     </row>
     <row r="44" spans="2:6" customFormat="1" ht="18" customHeight="1">
       <c r="B44" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="247" t="s">
+      <c r="C44" s="259" t="s">
         <v>394</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
+      <c r="D44" s="259"/>
+      <c r="E44" s="259"/>
+      <c r="F44" s="259"/>
     </row>
     <row r="45" spans="2:6" ht="15.75" customHeight="1">
       <c r="B45" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="247" t="s">
+      <c r="C45" s="259" t="s">
         <v>395</v>
       </c>
-      <c r="D45" s="247"/>
-      <c r="E45" s="247"/>
-      <c r="F45" s="247"/>
+      <c r="D45" s="259"/>
+      <c r="E45" s="259"/>
+      <c r="F45" s="259"/>
     </row>
     <row r="46" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B46" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="247" t="s">
+      <c r="C46" s="259" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="247"/>
-      <c r="E46" s="247"/>
-      <c r="F46" s="247"/>
+      <c r="D46" s="259"/>
+      <c r="E46" s="259"/>
+      <c r="F46" s="259"/>
     </row>
     <row r="47" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B47" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="247" t="s">
+      <c r="C47" s="259" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="247"/>
-      <c r="E47" s="247"/>
-      <c r="F47" s="247"/>
+      <c r="D47" s="259"/>
+      <c r="E47" s="259"/>
+      <c r="F47" s="259"/>
     </row>
     <row r="48" spans="2:6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B48" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="247" t="s">
+      <c r="C48" s="259" t="s">
         <v>169</v>
       </c>
-      <c r="D48" s="247"/>
-      <c r="E48" s="247"/>
-      <c r="F48" s="247"/>
+      <c r="D48" s="259"/>
+      <c r="E48" s="259"/>
+      <c r="F48" s="259"/>
     </row>
     <row r="49" spans="1:1" ht="12.75">
       <c r="A49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="D17:F17"/>
@@ -9910,19 +9918,11 @@
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D13:F13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9964,41 +9964,41 @@
   <sheetData>
     <row r="1" spans="1:42" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:42" ht="15.75" thickBot="1">
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="273" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="284"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="274"/>
+      <c r="L2" s="274"/>
+      <c r="M2" s="274"/>
+      <c r="N2" s="275"/>
     </row>
     <row r="3" spans="1:42" ht="13.5" thickBot="1"/>
     <row r="4" spans="1:42" ht="13.5" thickBot="1">
-      <c r="B4" s="285" t="s">
+      <c r="B4" s="276" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="286"/>
-      <c r="D4" s="287"/>
-      <c r="E4" s="287"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
       <c r="F4" s="47"/>
       <c r="G4" s="135"/>
-      <c r="H4" s="292" t="s">
+      <c r="H4" s="283" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="293"/>
-      <c r="J4" s="293"/>
-      <c r="K4" s="293"/>
-      <c r="L4" s="293"/>
-      <c r="M4" s="293"/>
-      <c r="N4" s="294"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="284"/>
+      <c r="L4" s="284"/>
+      <c r="M4" s="284"/>
+      <c r="N4" s="285"/>
     </row>
     <row r="5" spans="1:42" ht="24.75" customHeight="1">
       <c r="B5" s="42"/>
@@ -10021,11 +10021,11 @@
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="288">
+      <c r="E6" s="279">
         <f>AVERAGE(G14:G24)</f>
         <v>0.13289760348583879</v>
       </c>
-      <c r="F6" s="288"/>
+      <c r="F6" s="279"/>
       <c r="G6" s="135"/>
       <c r="H6" s="138" t="s">
         <v>142</v>
@@ -10052,11 +10052,11 @@
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="95"/>
-      <c r="E7" s="288">
+      <c r="E7" s="279">
         <f>AVERAGE(H14:H24)</f>
         <v>0.88634630053394359</v>
       </c>
-      <c r="F7" s="288"/>
+      <c r="F7" s="279"/>
       <c r="G7" s="136" t="s">
         <v>379</v>
       </c>
@@ -10086,16 +10086,16 @@
       </c>
     </row>
     <row r="8" spans="1:42" ht="22.5">
-      <c r="B8" s="289" t="s">
+      <c r="B8" s="280" t="s">
         <v>385</v>
       </c>
-      <c r="C8" s="290"/>
-      <c r="D8" s="291"/>
-      <c r="E8" s="288">
+      <c r="C8" s="281"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="279">
         <f>SUM(I14:I24)</f>
         <v>3</v>
       </c>
-      <c r="F8" s="288"/>
+      <c r="F8" s="279"/>
       <c r="G8" s="137" t="s">
         <v>380</v>
       </c>
@@ -10130,11 +10130,11 @@
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="95"/>
-      <c r="E9" s="288">
+      <c r="E9" s="279">
         <f>SUM(J14:J24)</f>
         <v>2</v>
       </c>
-      <c r="F9" s="288"/>
+      <c r="F9" s="279"/>
       <c r="G9" s="137" t="s">
         <v>381</v>
       </c>
@@ -10164,16 +10164,16 @@
       </c>
     </row>
     <row r="10" spans="1:42">
-      <c r="B10" s="289" t="s">
+      <c r="B10" s="280" t="s">
         <v>387</v>
       </c>
-      <c r="C10" s="290"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="288">
+      <c r="C10" s="281"/>
+      <c r="D10" s="282"/>
+      <c r="E10" s="279">
         <f>SUM(K14:K24)</f>
         <v>12</v>
       </c>
-      <c r="F10" s="288"/>
+      <c r="F10" s="279"/>
       <c r="G10" s="137" t="s">
         <v>101</v>
       </c>
@@ -10220,58 +10220,58 @@
       <c r="D12" s="196"/>
       <c r="E12" s="196"/>
       <c r="F12" s="196"/>
-      <c r="G12" s="276" t="s">
+      <c r="G12" s="289" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="277"/>
-      <c r="I12" s="279" t="s">
+      <c r="H12" s="290"/>
+      <c r="I12" s="292" t="s">
         <v>328</v>
       </c>
-      <c r="J12" s="280"/>
-      <c r="K12" s="280"/>
-      <c r="L12" s="281"/>
-      <c r="M12" s="278" t="s">
+      <c r="J12" s="293"/>
+      <c r="K12" s="293"/>
+      <c r="L12" s="294"/>
+      <c r="M12" s="291" t="s">
         <v>142</v>
       </c>
-      <c r="N12" s="274"/>
-      <c r="O12" s="274"/>
-      <c r="P12" s="274"/>
-      <c r="Q12" s="275"/>
-      <c r="R12" s="273" t="s">
+      <c r="N12" s="287"/>
+      <c r="O12" s="287"/>
+      <c r="P12" s="287"/>
+      <c r="Q12" s="288"/>
+      <c r="R12" s="286" t="s">
         <v>343</v>
       </c>
-      <c r="S12" s="274"/>
-      <c r="T12" s="274"/>
-      <c r="U12" s="274"/>
-      <c r="V12" s="275"/>
-      <c r="W12" s="273" t="s">
+      <c r="S12" s="287"/>
+      <c r="T12" s="287"/>
+      <c r="U12" s="287"/>
+      <c r="V12" s="288"/>
+      <c r="W12" s="286" t="s">
         <v>216</v>
       </c>
-      <c r="X12" s="274"/>
-      <c r="Y12" s="274"/>
-      <c r="Z12" s="274"/>
-      <c r="AA12" s="275"/>
-      <c r="AB12" s="273" t="s">
+      <c r="X12" s="287"/>
+      <c r="Y12" s="287"/>
+      <c r="Z12" s="287"/>
+      <c r="AA12" s="288"/>
+      <c r="AB12" s="286" t="s">
         <v>460</v>
       </c>
-      <c r="AC12" s="274"/>
-      <c r="AD12" s="274"/>
-      <c r="AE12" s="274"/>
-      <c r="AF12" s="275"/>
-      <c r="AG12" s="273" t="s">
+      <c r="AC12" s="287"/>
+      <c r="AD12" s="287"/>
+      <c r="AE12" s="287"/>
+      <c r="AF12" s="288"/>
+      <c r="AG12" s="286" t="s">
         <v>19</v>
       </c>
-      <c r="AH12" s="274"/>
-      <c r="AI12" s="274"/>
-      <c r="AJ12" s="274"/>
-      <c r="AK12" s="275"/>
-      <c r="AL12" s="273" t="s">
+      <c r="AH12" s="287"/>
+      <c r="AI12" s="287"/>
+      <c r="AJ12" s="287"/>
+      <c r="AK12" s="288"/>
+      <c r="AL12" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="AM12" s="274"/>
-      <c r="AN12" s="274"/>
-      <c r="AO12" s="274"/>
-      <c r="AP12" s="275"/>
+      <c r="AM12" s="287"/>
+      <c r="AN12" s="287"/>
+      <c r="AO12" s="287"/>
+      <c r="AP12" s="288"/>
     </row>
     <row r="13" spans="1:42" ht="35.25" customHeight="1" thickBot="1">
       <c r="B13" s="34" t="s">
@@ -11135,6 +11135,14 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AL12:AP12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="W12:AA12"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="I12:L12"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="E10:F10"/>
@@ -11145,14 +11153,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AL12:AP12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="W12:AA12"/>
-    <mergeCell ref="AB12:AF12"/>
-    <mergeCell ref="I12:L12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -11179,8 +11179,8 @@
   </sheetPr>
   <dimension ref="B1:AL111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:W5"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -11339,28 +11339,28 @@
       <c r="W5" s="309"/>
     </row>
     <row r="6" spans="2:38" ht="12.75" customHeight="1">
-      <c r="B6" s="323" t="s">
+      <c r="B6" s="315" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="324"/>
-      <c r="D6" s="325"/>
+      <c r="C6" s="316"/>
+      <c r="D6" s="317"/>
       <c r="E6" s="194">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:38" ht="12.75" customHeight="1">
-      <c r="B7" s="323" t="s">
+      <c r="B7" s="315" t="s">
         <v>396</v>
       </c>
-      <c r="C7" s="324"/>
-      <c r="D7" s="325"/>
+      <c r="C7" s="316"/>
+      <c r="D7" s="317"/>
       <c r="E7" s="194" t="s">
         <v>668</v>
       </c>
-      <c r="H7" s="327" t="s">
+      <c r="H7" s="319" t="s">
         <v>379</v>
       </c>
-      <c r="I7" s="328"/>
+      <c r="I7" s="320"/>
       <c r="J7" s="193">
         <f>COUNTIF($N$15:$N$111,"Si")</f>
         <v>94</v>
@@ -11386,18 +11386,18 @@
       </c>
     </row>
     <row r="8" spans="2:38" ht="12" customHeight="1">
-      <c r="B8" s="323" t="s">
+      <c r="B8" s="315" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="325"/>
+      <c r="C8" s="316"/>
+      <c r="D8" s="317"/>
       <c r="E8" s="194" t="s">
         <v>470</v>
       </c>
-      <c r="H8" s="327" t="s">
+      <c r="H8" s="319" t="s">
         <v>380</v>
       </c>
-      <c r="I8" s="328"/>
+      <c r="I8" s="320"/>
       <c r="J8" s="193">
         <f>COUNTIF($N$15:$N$111,"No")</f>
         <v>0</v>
@@ -11431,19 +11431,19 @@
       </c>
     </row>
     <row r="9" spans="2:38" ht="12.75" customHeight="1">
-      <c r="B9" s="323" t="s">
+      <c r="B9" s="315" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="324"/>
-      <c r="D9" s="325"/>
+      <c r="C9" s="316"/>
+      <c r="D9" s="317"/>
       <c r="E9" s="195">
         <v>42566</v>
       </c>
       <c r="G9"/>
-      <c r="H9" s="327" t="s">
+      <c r="H9" s="319" t="s">
         <v>381</v>
       </c>
-      <c r="I9" s="328"/>
+      <c r="I9" s="320"/>
       <c r="J9" s="193">
         <f>COUNTIF($N$15:$N$111,"NA")</f>
         <v>0</v>
@@ -11477,11 +11477,11 @@
       </c>
     </row>
     <row r="10" spans="2:38" ht="12.75" customHeight="1">
-      <c r="B10" s="323" t="s">
+      <c r="B10" s="315" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="324"/>
-      <c r="D10" s="325"/>
+      <c r="C10" s="316"/>
+      <c r="D10" s="317"/>
       <c r="E10" s="194"/>
       <c r="H10" s="32" t="s">
         <v>157</v>
@@ -11596,92 +11596,92 @@
       </c>
     </row>
     <row r="13" spans="2:38" s="217" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B13" s="329" t="s">
+      <c r="B13" s="301" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="329" t="s">
+      <c r="C13" s="301" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="326" t="s">
+      <c r="D13" s="318" t="s">
         <v>560</v>
       </c>
-      <c r="E13" s="326"/>
-      <c r="F13" s="310" t="s">
+      <c r="E13" s="318"/>
+      <c r="F13" s="299" t="s">
         <v>218</v>
       </c>
-      <c r="G13" s="331" t="s">
+      <c r="G13" s="306" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="318" t="s">
+      <c r="H13" s="302" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="319"/>
-      <c r="J13" s="318" t="s">
+      <c r="I13" s="303"/>
+      <c r="J13" s="302" t="s">
         <v>561</v>
       </c>
-      <c r="K13" s="319"/>
-      <c r="L13" s="310" t="s">
+      <c r="K13" s="303"/>
+      <c r="L13" s="299" t="s">
         <v>256</v>
       </c>
-      <c r="M13" s="310" t="s">
+      <c r="M13" s="299" t="s">
         <v>329</v>
       </c>
-      <c r="N13" s="318" t="s">
+      <c r="N13" s="302" t="s">
         <v>258</v>
       </c>
-      <c r="O13" s="319"/>
-      <c r="P13" s="310" t="s">
+      <c r="O13" s="303"/>
+      <c r="P13" s="299" t="s">
         <v>378</v>
       </c>
-      <c r="Q13" s="310" t="s">
+      <c r="Q13" s="299" t="s">
         <v>146</v>
       </c>
-      <c r="R13" s="310" t="s">
+      <c r="R13" s="299" t="s">
         <v>137</v>
       </c>
-      <c r="S13" s="310" t="s">
+      <c r="S13" s="299" t="s">
         <v>138</v>
       </c>
-      <c r="T13" s="310" t="s">
+      <c r="T13" s="299" t="s">
         <v>139</v>
       </c>
-      <c r="U13" s="310" t="s">
+      <c r="U13" s="299" t="s">
         <v>638</v>
       </c>
-      <c r="V13" s="310" t="s">
+      <c r="V13" s="299" t="s">
         <v>147</v>
       </c>
-      <c r="W13" s="310" t="s">
+      <c r="W13" s="299" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="14" spans="2:38" s="217" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B14" s="310"/>
-      <c r="C14" s="310"/>
+      <c r="B14" s="299"/>
+      <c r="C14" s="299"/>
       <c r="D14" s="213" t="s">
         <v>122</v>
       </c>
       <c r="E14" s="213" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="311"/>
-      <c r="G14" s="332"/>
-      <c r="H14" s="320"/>
-      <c r="I14" s="321"/>
-      <c r="J14" s="320"/>
-      <c r="K14" s="321"/>
-      <c r="L14" s="311"/>
-      <c r="M14" s="311"/>
-      <c r="N14" s="320"/>
-      <c r="O14" s="321"/>
-      <c r="P14" s="311"/>
-      <c r="Q14" s="311"/>
-      <c r="R14" s="311"/>
-      <c r="S14" s="311"/>
-      <c r="T14" s="311"/>
-      <c r="U14" s="311"/>
-      <c r="V14" s="311"/>
-      <c r="W14" s="311"/>
+      <c r="F14" s="300"/>
+      <c r="G14" s="307"/>
+      <c r="H14" s="304"/>
+      <c r="I14" s="305"/>
+      <c r="J14" s="304"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="300"/>
+      <c r="M14" s="300"/>
+      <c r="N14" s="304"/>
+      <c r="O14" s="305"/>
+      <c r="P14" s="300"/>
+      <c r="Q14" s="300"/>
+      <c r="R14" s="300"/>
+      <c r="S14" s="300"/>
+      <c r="T14" s="300"/>
+      <c r="U14" s="300"/>
+      <c r="V14" s="300"/>
+      <c r="W14" s="300"/>
       <c r="Y14" s="218" t="s">
         <v>142</v>
       </c>
@@ -11702,30 +11702,30 @@
       </c>
     </row>
     <row r="15" spans="2:38" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="B15" s="312" t="s">
+      <c r="B15" s="295" t="s">
         <v>482</v>
       </c>
-      <c r="C15" s="313"/>
-      <c r="D15" s="313"/>
-      <c r="E15" s="313"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="313"/>
-      <c r="H15" s="313"/>
-      <c r="I15" s="313"/>
-      <c r="J15" s="313"/>
-      <c r="K15" s="313"/>
-      <c r="L15" s="313"/>
-      <c r="M15" s="313"/>
-      <c r="N15" s="313"/>
-      <c r="O15" s="330"/>
-      <c r="P15" s="313"/>
-      <c r="Q15" s="313"/>
-      <c r="R15" s="313"/>
-      <c r="S15" s="313"/>
-      <c r="T15" s="313"/>
-      <c r="U15" s="313"/>
-      <c r="V15" s="313"/>
-      <c r="W15" s="314"/>
+      <c r="C15" s="296"/>
+      <c r="D15" s="296"/>
+      <c r="E15" s="296"/>
+      <c r="F15" s="296"/>
+      <c r="G15" s="296"/>
+      <c r="H15" s="296"/>
+      <c r="I15" s="296"/>
+      <c r="J15" s="296"/>
+      <c r="K15" s="296"/>
+      <c r="L15" s="296"/>
+      <c r="M15" s="296"/>
+      <c r="N15" s="296"/>
+      <c r="O15" s="297"/>
+      <c r="P15" s="296"/>
+      <c r="Q15" s="296"/>
+      <c r="R15" s="296"/>
+      <c r="S15" s="296"/>
+      <c r="T15" s="296"/>
+      <c r="U15" s="296"/>
+      <c r="V15" s="296"/>
+      <c r="W15" s="298"/>
       <c r="Y15" s="121"/>
       <c r="Z15" s="121"/>
       <c r="AA15" s="121"/>
@@ -11750,14 +11750,14 @@
       <c r="G16" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="H16" s="322" t="s">
+      <c r="H16" s="313" t="s">
         <v>471</v>
       </c>
-      <c r="I16" s="322"/>
-      <c r="J16" s="301" t="s">
+      <c r="I16" s="313"/>
+      <c r="J16" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K16" s="302"/>
+      <c r="K16" s="327"/>
       <c r="L16" s="69" t="s">
         <v>257</v>
       </c>
@@ -11831,14 +11831,14 @@
       <c r="G17" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="H17" s="297" t="s">
+      <c r="H17" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="I17" s="297"/>
-      <c r="J17" s="301" t="s">
+      <c r="I17" s="314"/>
+      <c r="J17" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K17" s="302"/>
+      <c r="K17" s="327"/>
       <c r="L17" s="69" t="s">
         <v>257</v>
       </c>
@@ -11912,14 +11912,14 @@
       <c r="G18" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="H18" s="297" t="s">
+      <c r="H18" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="I18" s="297"/>
-      <c r="J18" s="301" t="s">
+      <c r="I18" s="314"/>
+      <c r="J18" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K18" s="302"/>
+      <c r="K18" s="327"/>
       <c r="L18" s="69" t="s">
         <v>257</v>
       </c>
@@ -11993,14 +11993,14 @@
       <c r="G19" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="H19" s="297" t="s">
+      <c r="H19" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="I19" s="297"/>
-      <c r="J19" s="301" t="s">
+      <c r="I19" s="314"/>
+      <c r="J19" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K19" s="302"/>
+      <c r="K19" s="327"/>
       <c r="L19" s="69" t="s">
         <v>257</v>
       </c>
@@ -12074,14 +12074,14 @@
       <c r="G20" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="H20" s="297" t="s">
+      <c r="H20" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="I20" s="297"/>
-      <c r="J20" s="301" t="s">
+      <c r="I20" s="314"/>
+      <c r="J20" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K20" s="302"/>
+      <c r="K20" s="327"/>
       <c r="L20" s="69" t="s">
         <v>257</v>
       </c>
@@ -12155,14 +12155,14 @@
       <c r="G21" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="H21" s="297" t="s">
+      <c r="H21" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="I21" s="297"/>
-      <c r="J21" s="301" t="s">
+      <c r="I21" s="314"/>
+      <c r="J21" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K21" s="302"/>
+      <c r="K21" s="327"/>
       <c r="L21" s="69" t="s">
         <v>257</v>
       </c>
@@ -12236,14 +12236,14 @@
       <c r="G22" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="H22" s="297" t="s">
+      <c r="H22" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="I22" s="297"/>
-      <c r="J22" s="301" t="s">
+      <c r="I22" s="314"/>
+      <c r="J22" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K22" s="302"/>
+      <c r="K22" s="327"/>
       <c r="L22" s="69" t="s">
         <v>257</v>
       </c>
@@ -12317,14 +12317,14 @@
       <c r="G23" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="H23" s="297" t="s">
+      <c r="H23" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="I23" s="297"/>
-      <c r="J23" s="301" t="s">
+      <c r="I23" s="314"/>
+      <c r="J23" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K23" s="302"/>
+      <c r="K23" s="327"/>
       <c r="L23" s="69" t="s">
         <v>257</v>
       </c>
@@ -12398,14 +12398,14 @@
       <c r="G24" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="H24" s="297" t="s">
+      <c r="H24" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="I24" s="297"/>
-      <c r="J24" s="301" t="s">
+      <c r="I24" s="314"/>
+      <c r="J24" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K24" s="302"/>
+      <c r="K24" s="327"/>
       <c r="L24" s="69" t="s">
         <v>257</v>
       </c>
@@ -12479,14 +12479,14 @@
       <c r="G25" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="H25" s="297" t="s">
+      <c r="H25" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="I25" s="297"/>
-      <c r="J25" s="301" t="s">
+      <c r="I25" s="314"/>
+      <c r="J25" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K25" s="302"/>
+      <c r="K25" s="327"/>
       <c r="L25" s="69" t="s">
         <v>257</v>
       </c>
@@ -12560,14 +12560,14 @@
       <c r="G26" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="H26" s="297" t="s">
+      <c r="H26" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="I26" s="297"/>
-      <c r="J26" s="301" t="s">
+      <c r="I26" s="314"/>
+      <c r="J26" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K26" s="302"/>
+      <c r="K26" s="327"/>
       <c r="L26" s="69" t="s">
         <v>257</v>
       </c>
@@ -12643,14 +12643,14 @@
       <c r="G27" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="297" t="s">
+      <c r="H27" s="314" t="s">
         <v>566</v>
       </c>
-      <c r="I27" s="297"/>
-      <c r="J27" s="301" t="s">
+      <c r="I27" s="314"/>
+      <c r="J27" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K27" s="302"/>
+      <c r="K27" s="327"/>
       <c r="L27" s="69" t="s">
         <v>257</v>
       </c>
@@ -12722,14 +12722,14 @@
       <c r="G28" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="H28" s="297" t="s">
+      <c r="H28" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="I28" s="297"/>
-      <c r="J28" s="301" t="s">
+      <c r="I28" s="314"/>
+      <c r="J28" s="326" t="s">
         <v>565</v>
       </c>
-      <c r="K28" s="302"/>
+      <c r="K28" s="327"/>
       <c r="L28" s="69" t="s">
         <v>257</v>
       </c>
@@ -12801,14 +12801,14 @@
       <c r="G29" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="298" t="s">
+      <c r="H29" s="321" t="s">
         <v>566</v>
       </c>
-      <c r="I29" s="298"/>
-      <c r="J29" s="303" t="s">
+      <c r="I29" s="321"/>
+      <c r="J29" s="329" t="s">
         <v>565</v>
       </c>
-      <c r="K29" s="304"/>
+      <c r="K29" s="330"/>
       <c r="L29" s="220" t="s">
         <v>257</v>
       </c>
@@ -12865,30 +12865,30 @@
       </c>
     </row>
     <row r="30" spans="2:30" s="36" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="B30" s="315" t="s">
+      <c r="B30" s="310" t="s">
         <v>555</v>
       </c>
-      <c r="C30" s="316"/>
-      <c r="D30" s="316"/>
-      <c r="E30" s="316"/>
-      <c r="F30" s="316"/>
-      <c r="G30" s="316"/>
-      <c r="H30" s="316"/>
-      <c r="I30" s="316"/>
-      <c r="J30" s="316"/>
-      <c r="K30" s="316"/>
-      <c r="L30" s="316"/>
-      <c r="M30" s="316"/>
-      <c r="N30" s="316"/>
-      <c r="O30" s="316"/>
-      <c r="P30" s="316"/>
-      <c r="Q30" s="316"/>
-      <c r="R30" s="316"/>
-      <c r="S30" s="316"/>
-      <c r="T30" s="316"/>
-      <c r="U30" s="316"/>
-      <c r="V30" s="316"/>
-      <c r="W30" s="317"/>
+      <c r="C30" s="311"/>
+      <c r="D30" s="311"/>
+      <c r="E30" s="311"/>
+      <c r="F30" s="311"/>
+      <c r="G30" s="311"/>
+      <c r="H30" s="311"/>
+      <c r="I30" s="311"/>
+      <c r="J30" s="311"/>
+      <c r="K30" s="311"/>
+      <c r="L30" s="311"/>
+      <c r="M30" s="311"/>
+      <c r="N30" s="311"/>
+      <c r="O30" s="311"/>
+      <c r="P30" s="311"/>
+      <c r="Q30" s="311"/>
+      <c r="R30" s="311"/>
+      <c r="S30" s="311"/>
+      <c r="T30" s="311"/>
+      <c r="U30" s="311"/>
+      <c r="V30" s="311"/>
+      <c r="W30" s="312"/>
       <c r="X30" s="50"/>
       <c r="Y30" s="121"/>
       <c r="Z30" s="121"/>
@@ -12914,14 +12914,14 @@
       <c r="G31" s="205" t="s">
         <v>478</v>
       </c>
-      <c r="H31" s="299" t="s">
+      <c r="H31" s="322" t="s">
         <v>471</v>
       </c>
-      <c r="I31" s="300"/>
-      <c r="J31" s="305" t="s">
+      <c r="I31" s="323"/>
+      <c r="J31" s="331" t="s">
         <v>565</v>
       </c>
-      <c r="K31" s="306"/>
+      <c r="K31" s="332"/>
       <c r="L31" s="69" t="s">
         <v>257</v>
       </c>
@@ -12994,14 +12994,14 @@
       <c r="G32" s="205" t="s">
         <v>478</v>
       </c>
-      <c r="H32" s="295" t="s">
+      <c r="H32" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I32" s="307"/>
-      <c r="J32" s="297" t="s">
+      <c r="I32" s="325"/>
+      <c r="J32" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K32" s="297"/>
+      <c r="K32" s="314"/>
       <c r="L32" s="219" t="s">
         <v>257</v>
       </c>
@@ -13074,14 +13074,14 @@
       <c r="G33" s="205" t="s">
         <v>478</v>
       </c>
-      <c r="H33" s="295" t="s">
+      <c r="H33" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I33" s="307"/>
-      <c r="J33" s="297" t="s">
+      <c r="I33" s="325"/>
+      <c r="J33" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K33" s="297"/>
+      <c r="K33" s="314"/>
       <c r="L33" s="219" t="s">
         <v>257</v>
       </c>
@@ -13154,14 +13154,14 @@
       <c r="G34" s="205" t="s">
         <v>478</v>
       </c>
-      <c r="H34" s="295" t="s">
+      <c r="H34" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I34" s="307"/>
-      <c r="J34" s="297" t="s">
+      <c r="I34" s="325"/>
+      <c r="J34" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K34" s="297"/>
+      <c r="K34" s="314"/>
       <c r="L34" s="219" t="s">
         <v>257</v>
       </c>
@@ -13234,14 +13234,14 @@
       <c r="G35" s="205" t="s">
         <v>478</v>
       </c>
-      <c r="H35" s="295" t="s">
+      <c r="H35" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I35" s="307"/>
-      <c r="J35" s="297" t="s">
+      <c r="I35" s="325"/>
+      <c r="J35" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K35" s="297"/>
+      <c r="K35" s="314"/>
       <c r="L35" s="219" t="s">
         <v>257</v>
       </c>
@@ -13314,14 +13314,14 @@
       <c r="G36" s="205" t="s">
         <v>478</v>
       </c>
-      <c r="H36" s="295" t="s">
+      <c r="H36" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I36" s="307"/>
-      <c r="J36" s="297" t="s">
+      <c r="I36" s="325"/>
+      <c r="J36" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K36" s="297"/>
+      <c r="K36" s="314"/>
       <c r="L36" s="219" t="s">
         <v>257</v>
       </c>
@@ -13394,14 +13394,14 @@
       <c r="G37" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H37" s="295" t="s">
+      <c r="H37" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I37" s="307"/>
-      <c r="J37" s="297" t="s">
+      <c r="I37" s="325"/>
+      <c r="J37" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K37" s="297"/>
+      <c r="K37" s="314"/>
       <c r="L37" s="219" t="s">
         <v>257</v>
       </c>
@@ -13474,14 +13474,14 @@
       <c r="G38" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H38" s="295" t="s">
+      <c r="H38" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I38" s="307"/>
-      <c r="J38" s="297" t="s">
+      <c r="I38" s="325"/>
+      <c r="J38" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K38" s="297"/>
+      <c r="K38" s="314"/>
       <c r="L38" s="219" t="s">
         <v>257</v>
       </c>
@@ -13554,14 +13554,14 @@
       <c r="G39" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H39" s="295" t="s">
+      <c r="H39" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I39" s="307"/>
-      <c r="J39" s="297" t="s">
+      <c r="I39" s="325"/>
+      <c r="J39" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K39" s="297"/>
+      <c r="K39" s="314"/>
       <c r="L39" s="219" t="s">
         <v>257</v>
       </c>
@@ -13634,14 +13634,14 @@
       <c r="G40" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H40" s="295" t="s">
+      <c r="H40" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I40" s="307"/>
-      <c r="J40" s="297" t="s">
+      <c r="I40" s="325"/>
+      <c r="J40" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K40" s="297"/>
+      <c r="K40" s="314"/>
       <c r="L40" s="219" t="s">
         <v>257</v>
       </c>
@@ -13714,14 +13714,14 @@
       <c r="G41" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H41" s="295" t="s">
+      <c r="H41" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I41" s="307"/>
-      <c r="J41" s="297" t="s">
+      <c r="I41" s="325"/>
+      <c r="J41" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K41" s="297"/>
+      <c r="K41" s="314"/>
       <c r="L41" s="219" t="s">
         <v>257</v>
       </c>
@@ -13794,14 +13794,14 @@
       <c r="G42" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H42" s="295" t="s">
+      <c r="H42" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I42" s="307"/>
-      <c r="J42" s="297" t="s">
+      <c r="I42" s="325"/>
+      <c r="J42" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K42" s="297"/>
+      <c r="K42" s="314"/>
       <c r="L42" s="219" t="s">
         <v>257</v>
       </c>
@@ -13874,14 +13874,14 @@
       <c r="G43" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H43" s="295" t="s">
+      <c r="H43" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I43" s="307"/>
-      <c r="J43" s="297" t="s">
+      <c r="I43" s="325"/>
+      <c r="J43" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K43" s="297"/>
+      <c r="K43" s="314"/>
       <c r="L43" s="219" t="s">
         <v>257</v>
       </c>
@@ -13954,14 +13954,14 @@
       <c r="G44" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H44" s="295" t="s">
+      <c r="H44" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I44" s="307"/>
-      <c r="J44" s="297" t="s">
+      <c r="I44" s="325"/>
+      <c r="J44" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K44" s="297"/>
+      <c r="K44" s="314"/>
       <c r="L44" s="219" t="s">
         <v>257</v>
       </c>
@@ -14034,14 +14034,14 @@
       <c r="G45" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H45" s="295" t="s">
+      <c r="H45" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I45" s="307"/>
-      <c r="J45" s="297" t="s">
+      <c r="I45" s="325"/>
+      <c r="J45" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K45" s="297"/>
+      <c r="K45" s="314"/>
       <c r="L45" s="219" t="s">
         <v>257</v>
       </c>
@@ -14114,14 +14114,14 @@
       <c r="G46" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="295" t="s">
+      <c r="H46" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I46" s="307"/>
-      <c r="J46" s="297" t="s">
+      <c r="I46" s="325"/>
+      <c r="J46" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K46" s="297"/>
+      <c r="K46" s="314"/>
       <c r="L46" s="219" t="s">
         <v>257</v>
       </c>
@@ -14194,14 +14194,14 @@
       <c r="G47" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="295" t="s">
+      <c r="H47" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I47" s="307"/>
-      <c r="J47" s="297" t="s">
+      <c r="I47" s="325"/>
+      <c r="J47" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K47" s="297"/>
+      <c r="K47" s="314"/>
       <c r="L47" s="219" t="s">
         <v>257</v>
       </c>
@@ -14274,14 +14274,14 @@
       <c r="G48" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="295" t="s">
+      <c r="H48" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I48" s="307"/>
-      <c r="J48" s="297" t="s">
+      <c r="I48" s="325"/>
+      <c r="J48" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K48" s="297"/>
+      <c r="K48" s="314"/>
       <c r="L48" s="219" t="s">
         <v>257</v>
       </c>
@@ -14354,14 +14354,14 @@
       <c r="G49" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="295" t="s">
+      <c r="H49" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I49" s="307"/>
-      <c r="J49" s="297" t="s">
+      <c r="I49" s="325"/>
+      <c r="J49" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K49" s="297"/>
+      <c r="K49" s="314"/>
       <c r="L49" s="219" t="s">
         <v>257</v>
       </c>
@@ -14434,14 +14434,14 @@
       <c r="G50" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="295" t="s">
+      <c r="H50" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I50" s="307"/>
-      <c r="J50" s="297" t="s">
+      <c r="I50" s="325"/>
+      <c r="J50" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K50" s="297"/>
+      <c r="K50" s="314"/>
       <c r="L50" s="219" t="s">
         <v>257</v>
       </c>
@@ -14514,14 +14514,14 @@
       <c r="G51" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="295" t="s">
+      <c r="H51" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I51" s="307"/>
-      <c r="J51" s="297" t="s">
+      <c r="I51" s="325"/>
+      <c r="J51" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K51" s="297"/>
+      <c r="K51" s="314"/>
       <c r="L51" s="219" t="s">
         <v>257</v>
       </c>
@@ -14594,14 +14594,14 @@
       <c r="G52" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="295" t="s">
+      <c r="H52" s="324" t="s">
         <v>566</v>
       </c>
-      <c r="I52" s="307"/>
-      <c r="J52" s="297" t="s">
+      <c r="I52" s="325"/>
+      <c r="J52" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K52" s="297"/>
+      <c r="K52" s="314"/>
       <c r="L52" s="219" t="s">
         <v>257</v>
       </c>
@@ -14674,14 +14674,14 @@
       <c r="G53" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="295" t="s">
+      <c r="H53" s="324" t="s">
         <v>566</v>
       </c>
-      <c r="I53" s="307"/>
-      <c r="J53" s="297" t="s">
+      <c r="I53" s="325"/>
+      <c r="J53" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K53" s="297"/>
+      <c r="K53" s="314"/>
       <c r="L53" s="219" t="s">
         <v>257</v>
       </c>
@@ -14758,14 +14758,14 @@
       <c r="G54" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="295" t="s">
+      <c r="H54" s="324" t="s">
         <v>566</v>
       </c>
-      <c r="I54" s="307"/>
-      <c r="J54" s="297" t="s">
+      <c r="I54" s="325"/>
+      <c r="J54" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K54" s="297"/>
+      <c r="K54" s="314"/>
       <c r="L54" s="219" t="s">
         <v>257</v>
       </c>
@@ -14840,14 +14840,14 @@
       <c r="G55" s="205" t="s">
         <v>478</v>
       </c>
-      <c r="H55" s="295" t="s">
+      <c r="H55" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I55" s="307"/>
-      <c r="J55" s="297" t="s">
+      <c r="I55" s="325"/>
+      <c r="J55" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K55" s="297"/>
+      <c r="K55" s="314"/>
       <c r="L55" s="219" t="s">
         <v>257</v>
       </c>
@@ -14924,14 +14924,14 @@
       <c r="G56" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H56" s="295" t="s">
+      <c r="H56" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I56" s="307"/>
-      <c r="J56" s="297" t="s">
+      <c r="I56" s="325"/>
+      <c r="J56" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K56" s="297"/>
+      <c r="K56" s="314"/>
       <c r="L56" s="219" t="s">
         <v>257</v>
       </c>
@@ -15012,14 +15012,14 @@
       <c r="G57" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H57" s="295" t="s">
+      <c r="H57" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I57" s="307"/>
-      <c r="J57" s="297" t="s">
+      <c r="I57" s="325"/>
+      <c r="J57" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K57" s="297"/>
+      <c r="K57" s="314"/>
       <c r="L57" s="219" t="s">
         <v>257</v>
       </c>
@@ -15100,14 +15100,14 @@
       <c r="G58" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H58" s="295" t="s">
+      <c r="H58" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I58" s="307"/>
-      <c r="J58" s="297" t="s">
+      <c r="I58" s="325"/>
+      <c r="J58" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K58" s="297"/>
+      <c r="K58" s="314"/>
       <c r="L58" s="219" t="s">
         <v>257</v>
       </c>
@@ -15188,14 +15188,14 @@
       <c r="G59" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H59" s="295" t="s">
+      <c r="H59" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I59" s="307"/>
-      <c r="J59" s="297" t="s">
+      <c r="I59" s="325"/>
+      <c r="J59" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K59" s="297"/>
+      <c r="K59" s="314"/>
       <c r="L59" s="219" t="s">
         <v>257</v>
       </c>
@@ -15274,14 +15274,14 @@
       <c r="G60" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H60" s="295" t="s">
+      <c r="H60" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I60" s="307"/>
-      <c r="J60" s="297" t="s">
+      <c r="I60" s="325"/>
+      <c r="J60" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K60" s="297"/>
+      <c r="K60" s="314"/>
       <c r="L60" s="219" t="s">
         <v>257</v>
       </c>
@@ -15362,14 +15362,14 @@
       <c r="G61" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H61" s="295" t="s">
+      <c r="H61" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I61" s="307"/>
-      <c r="J61" s="297" t="s">
+      <c r="I61" s="325"/>
+      <c r="J61" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K61" s="297"/>
+      <c r="K61" s="314"/>
       <c r="L61" s="219" t="s">
         <v>257</v>
       </c>
@@ -15450,14 +15450,14 @@
       <c r="G62" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H62" s="295" t="s">
+      <c r="H62" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I62" s="307"/>
-      <c r="J62" s="297" t="s">
+      <c r="I62" s="325"/>
+      <c r="J62" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K62" s="297"/>
+      <c r="K62" s="314"/>
       <c r="L62" s="219" t="s">
         <v>257</v>
       </c>
@@ -15536,14 +15536,14 @@
       <c r="G63" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H63" s="295" t="s">
+      <c r="H63" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I63" s="307"/>
-      <c r="J63" s="297" t="s">
+      <c r="I63" s="325"/>
+      <c r="J63" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K63" s="297"/>
+      <c r="K63" s="314"/>
       <c r="L63" s="219" t="s">
         <v>257</v>
       </c>
@@ -15624,14 +15624,14 @@
       <c r="G64" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H64" s="295" t="s">
+      <c r="H64" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I64" s="307"/>
-      <c r="J64" s="297" t="s">
+      <c r="I64" s="325"/>
+      <c r="J64" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K64" s="297"/>
+      <c r="K64" s="314"/>
       <c r="L64" s="219" t="s">
         <v>257</v>
       </c>
@@ -15710,14 +15710,14 @@
       <c r="G65" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H65" s="295" t="s">
+      <c r="H65" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I65" s="307"/>
-      <c r="J65" s="297" t="s">
+      <c r="I65" s="325"/>
+      <c r="J65" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K65" s="297"/>
+      <c r="K65" s="314"/>
       <c r="L65" s="219" t="s">
         <v>257</v>
       </c>
@@ -15796,14 +15796,14 @@
       <c r="G66" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H66" s="295" t="s">
+      <c r="H66" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I66" s="307"/>
-      <c r="J66" s="297" t="s">
+      <c r="I66" s="325"/>
+      <c r="J66" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K66" s="297"/>
+      <c r="K66" s="314"/>
       <c r="L66" s="219" t="s">
         <v>257</v>
       </c>
@@ -15882,14 +15882,14 @@
       <c r="G67" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H67" s="295" t="s">
+      <c r="H67" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I67" s="307"/>
-      <c r="J67" s="297" t="s">
+      <c r="I67" s="325"/>
+      <c r="J67" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K67" s="297"/>
+      <c r="K67" s="314"/>
       <c r="L67" s="219" t="s">
         <v>257</v>
       </c>
@@ -15968,14 +15968,14 @@
       <c r="G68" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H68" s="295" t="s">
+      <c r="H68" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I68" s="307"/>
-      <c r="J68" s="297" t="s">
+      <c r="I68" s="325"/>
+      <c r="J68" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K68" s="297"/>
+      <c r="K68" s="314"/>
       <c r="L68" s="219" t="s">
         <v>257</v>
       </c>
@@ -16056,14 +16056,14 @@
       <c r="G69" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H69" s="295" t="s">
+      <c r="H69" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I69" s="307"/>
-      <c r="J69" s="297" t="s">
+      <c r="I69" s="325"/>
+      <c r="J69" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K69" s="297"/>
+      <c r="K69" s="314"/>
       <c r="L69" s="219" t="s">
         <v>257</v>
       </c>
@@ -16144,14 +16144,14 @@
       <c r="G70" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H70" s="295" t="s">
+      <c r="H70" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I70" s="307"/>
-      <c r="J70" s="297" t="s">
+      <c r="I70" s="325"/>
+      <c r="J70" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K70" s="297"/>
+      <c r="K70" s="314"/>
       <c r="L70" s="219" t="s">
         <v>257</v>
       </c>
@@ -16234,14 +16234,14 @@
       <c r="G71" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H71" s="295" t="s">
+      <c r="H71" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I71" s="307"/>
-      <c r="J71" s="297" t="s">
+      <c r="I71" s="325"/>
+      <c r="J71" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K71" s="297"/>
+      <c r="K71" s="314"/>
       <c r="L71" s="219" t="s">
         <v>257</v>
       </c>
@@ -16322,14 +16322,14 @@
       <c r="G72" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H72" s="295" t="s">
+      <c r="H72" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I72" s="307"/>
-      <c r="J72" s="297" t="s">
+      <c r="I72" s="325"/>
+      <c r="J72" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K72" s="297"/>
+      <c r="K72" s="314"/>
       <c r="L72" s="219" t="s">
         <v>257</v>
       </c>
@@ -16412,14 +16412,14 @@
       <c r="G73" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H73" s="295" t="s">
+      <c r="H73" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I73" s="307"/>
-      <c r="J73" s="297" t="s">
+      <c r="I73" s="325"/>
+      <c r="J73" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K73" s="297"/>
+      <c r="K73" s="314"/>
       <c r="L73" s="219" t="s">
         <v>257</v>
       </c>
@@ -16500,14 +16500,14 @@
       <c r="G74" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H74" s="295" t="s">
+      <c r="H74" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I74" s="307"/>
-      <c r="J74" s="297" t="s">
+      <c r="I74" s="325"/>
+      <c r="J74" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K74" s="297"/>
+      <c r="K74" s="314"/>
       <c r="L74" s="219" t="s">
         <v>257</v>
       </c>
@@ -16590,14 +16590,14 @@
       <c r="G75" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H75" s="295" t="s">
+      <c r="H75" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I75" s="307"/>
-      <c r="J75" s="297" t="s">
+      <c r="I75" s="325"/>
+      <c r="J75" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K75" s="297"/>
+      <c r="K75" s="314"/>
       <c r="L75" s="219" t="s">
         <v>257</v>
       </c>
@@ -16678,14 +16678,14 @@
       <c r="G76" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H76" s="295" t="s">
+      <c r="H76" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I76" s="307"/>
-      <c r="J76" s="297" t="s">
+      <c r="I76" s="325"/>
+      <c r="J76" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K76" s="297"/>
+      <c r="K76" s="314"/>
       <c r="L76" s="219" t="s">
         <v>257</v>
       </c>
@@ -16768,14 +16768,14 @@
       <c r="G77" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H77" s="295" t="s">
+      <c r="H77" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I77" s="307"/>
-      <c r="J77" s="297" t="s">
+      <c r="I77" s="325"/>
+      <c r="J77" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K77" s="297"/>
+      <c r="K77" s="314"/>
       <c r="L77" s="219" t="s">
         <v>257</v>
       </c>
@@ -16856,14 +16856,14 @@
       <c r="G78" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H78" s="295" t="s">
+      <c r="H78" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I78" s="307"/>
-      <c r="J78" s="297" t="s">
+      <c r="I78" s="325"/>
+      <c r="J78" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K78" s="297"/>
+      <c r="K78" s="314"/>
       <c r="L78" s="219" t="s">
         <v>257</v>
       </c>
@@ -16942,14 +16942,14 @@
       <c r="G79" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H79" s="295" t="s">
+      <c r="H79" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I79" s="307"/>
-      <c r="J79" s="297" t="s">
+      <c r="I79" s="325"/>
+      <c r="J79" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K79" s="297"/>
+      <c r="K79" s="314"/>
       <c r="L79" s="219" t="s">
         <v>257</v>
       </c>
@@ -17028,14 +17028,14 @@
       <c r="G80" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H80" s="295" t="s">
+      <c r="H80" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I80" s="307"/>
-      <c r="J80" s="297" t="s">
+      <c r="I80" s="325"/>
+      <c r="J80" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K80" s="297"/>
+      <c r="K80" s="314"/>
       <c r="L80" s="219" t="s">
         <v>257</v>
       </c>
@@ -17110,14 +17110,14 @@
       <c r="G81" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H81" s="295" t="s">
+      <c r="H81" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I81" s="307"/>
-      <c r="J81" s="297" t="s">
+      <c r="I81" s="325"/>
+      <c r="J81" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K81" s="297"/>
+      <c r="K81" s="314"/>
       <c r="L81" s="219" t="s">
         <v>257</v>
       </c>
@@ -17186,14 +17186,14 @@
       <c r="G82" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H82" s="295" t="s">
+      <c r="H82" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I82" s="307"/>
-      <c r="J82" s="297" t="s">
+      <c r="I82" s="325"/>
+      <c r="J82" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K82" s="297"/>
+      <c r="K82" s="314"/>
       <c r="L82" s="219" t="s">
         <v>257</v>
       </c>
@@ -17262,14 +17262,14 @@
       <c r="G83" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H83" s="295" t="s">
+      <c r="H83" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I83" s="307"/>
-      <c r="J83" s="297" t="s">
+      <c r="I83" s="325"/>
+      <c r="J83" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K83" s="297"/>
+      <c r="K83" s="314"/>
       <c r="L83" s="219" t="s">
         <v>257</v>
       </c>
@@ -17338,14 +17338,14 @@
       <c r="G84" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H84" s="295" t="s">
+      <c r="H84" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I84" s="307"/>
-      <c r="J84" s="297" t="s">
+      <c r="I84" s="325"/>
+      <c r="J84" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K84" s="297"/>
+      <c r="K84" s="314"/>
       <c r="L84" s="219" t="s">
         <v>257</v>
       </c>
@@ -17414,14 +17414,14 @@
       <c r="G85" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="H85" s="295" t="s">
+      <c r="H85" s="324" t="s">
         <v>569</v>
       </c>
-      <c r="I85" s="307"/>
-      <c r="J85" s="297" t="s">
+      <c r="I85" s="325"/>
+      <c r="J85" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K85" s="297"/>
+      <c r="K85" s="314"/>
       <c r="L85" s="219" t="s">
         <v>257</v>
       </c>
@@ -17490,14 +17490,14 @@
       <c r="G86" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H86" s="295" t="s">
+      <c r="H86" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I86" s="307"/>
-      <c r="J86" s="297" t="s">
+      <c r="I86" s="325"/>
+      <c r="J86" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K86" s="297"/>
+      <c r="K86" s="314"/>
       <c r="L86" s="219" t="s">
         <v>257</v>
       </c>
@@ -17572,14 +17572,14 @@
       <c r="G87" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H87" s="295" t="s">
+      <c r="H87" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I87" s="307"/>
-      <c r="J87" s="297" t="s">
+      <c r="I87" s="325"/>
+      <c r="J87" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K87" s="297"/>
+      <c r="K87" s="314"/>
       <c r="L87" s="219" t="s">
         <v>257</v>
       </c>
@@ -17654,14 +17654,14 @@
       <c r="G88" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H88" s="295" t="s">
+      <c r="H88" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I88" s="307"/>
-      <c r="J88" s="297" t="s">
+      <c r="I88" s="325"/>
+      <c r="J88" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K88" s="297"/>
+      <c r="K88" s="314"/>
       <c r="L88" s="219" t="s">
         <v>257</v>
       </c>
@@ -17736,14 +17736,14 @@
       <c r="G89" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H89" s="295" t="s">
+      <c r="H89" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I89" s="307"/>
-      <c r="J89" s="297" t="s">
+      <c r="I89" s="325"/>
+      <c r="J89" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K89" s="297"/>
+      <c r="K89" s="314"/>
       <c r="L89" s="219" t="s">
         <v>257</v>
       </c>
@@ -17818,14 +17818,14 @@
       <c r="G90" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H90" s="295" t="s">
+      <c r="H90" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I90" s="307"/>
-      <c r="J90" s="297" t="s">
+      <c r="I90" s="325"/>
+      <c r="J90" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K90" s="297"/>
+      <c r="K90" s="314"/>
       <c r="L90" s="219" t="s">
         <v>257</v>
       </c>
@@ -17900,14 +17900,14 @@
       <c r="G91" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H91" s="295" t="s">
+      <c r="H91" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I91" s="307"/>
-      <c r="J91" s="297" t="s">
+      <c r="I91" s="325"/>
+      <c r="J91" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K91" s="297"/>
+      <c r="K91" s="314"/>
       <c r="L91" s="219" t="s">
         <v>257</v>
       </c>
@@ -17982,14 +17982,14 @@
       <c r="G92" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H92" s="295" t="s">
+      <c r="H92" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I92" s="307"/>
-      <c r="J92" s="297" t="s">
+      <c r="I92" s="325"/>
+      <c r="J92" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K92" s="297"/>
+      <c r="K92" s="314"/>
       <c r="L92" s="219" t="s">
         <v>257</v>
       </c>
@@ -18062,14 +18062,14 @@
       <c r="G93" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="H93" s="295" t="s">
+      <c r="H93" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="I93" s="307"/>
-      <c r="J93" s="297" t="s">
+      <c r="I93" s="325"/>
+      <c r="J93" s="314" t="s">
         <v>471</v>
       </c>
-      <c r="K93" s="297"/>
+      <c r="K93" s="314"/>
       <c r="L93" s="219" t="s">
         <v>257</v>
       </c>
@@ -18142,14 +18142,14 @@
       <c r="G94" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="H94" s="295" t="s">
+      <c r="H94" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I94" s="307"/>
-      <c r="J94" s="297" t="s">
+      <c r="I94" s="325"/>
+      <c r="J94" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K94" s="297"/>
+      <c r="K94" s="314"/>
       <c r="L94" s="219" t="s">
         <v>257</v>
       </c>
@@ -18226,14 +18226,14 @@
       <c r="G95" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="H95" s="295" t="s">
+      <c r="H95" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I95" s="307"/>
-      <c r="J95" s="297" t="s">
+      <c r="I95" s="325"/>
+      <c r="J95" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K95" s="297"/>
+      <c r="K95" s="314"/>
       <c r="L95" s="219" t="s">
         <v>257</v>
       </c>
@@ -18310,14 +18310,14 @@
       <c r="G96" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="H96" s="295" t="s">
+      <c r="H96" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I96" s="307"/>
-      <c r="J96" s="297" t="s">
+      <c r="I96" s="325"/>
+      <c r="J96" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K96" s="297"/>
+      <c r="K96" s="314"/>
       <c r="L96" s="219" t="s">
         <v>257</v>
       </c>
@@ -18394,14 +18394,14 @@
       <c r="G97" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="H97" s="295" t="s">
+      <c r="H97" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I97" s="307"/>
-      <c r="J97" s="297" t="s">
+      <c r="I97" s="325"/>
+      <c r="J97" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K97" s="297"/>
+      <c r="K97" s="314"/>
       <c r="L97" s="219" t="s">
         <v>257</v>
       </c>
@@ -18478,14 +18478,14 @@
       <c r="G98" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="H98" s="295" t="s">
+      <c r="H98" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I98" s="307"/>
-      <c r="J98" s="297" t="s">
+      <c r="I98" s="325"/>
+      <c r="J98" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K98" s="297"/>
+      <c r="K98" s="314"/>
       <c r="L98" s="219" t="s">
         <v>257</v>
       </c>
@@ -18562,14 +18562,14 @@
       <c r="G99" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="H99" s="295" t="s">
+      <c r="H99" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I99" s="307"/>
-      <c r="J99" s="297" t="s">
+      <c r="I99" s="325"/>
+      <c r="J99" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K99" s="297"/>
+      <c r="K99" s="314"/>
       <c r="L99" s="219" t="s">
         <v>257</v>
       </c>
@@ -18646,14 +18646,14 @@
       <c r="G100" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="H100" s="295" t="s">
+      <c r="H100" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I100" s="307"/>
-      <c r="J100" s="297" t="s">
+      <c r="I100" s="325"/>
+      <c r="J100" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K100" s="297"/>
+      <c r="K100" s="314"/>
       <c r="L100" s="219" t="s">
         <v>257</v>
       </c>
@@ -18724,14 +18724,14 @@
       <c r="G101" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="H101" s="295" t="s">
+      <c r="H101" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I101" s="307"/>
-      <c r="J101" s="297" t="s">
+      <c r="I101" s="325"/>
+      <c r="J101" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K101" s="297"/>
+      <c r="K101" s="314"/>
       <c r="L101" s="219" t="s">
         <v>257</v>
       </c>
@@ -18808,14 +18808,14 @@
       <c r="G102" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="H102" s="295" t="s">
+      <c r="H102" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I102" s="307"/>
-      <c r="J102" s="297" t="s">
+      <c r="I102" s="325"/>
+      <c r="J102" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K102" s="297"/>
+      <c r="K102" s="314"/>
       <c r="L102" s="219" t="s">
         <v>257</v>
       </c>
@@ -18886,14 +18886,14 @@
       <c r="G103" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="H103" s="295" t="s">
+      <c r="H103" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I103" s="307"/>
-      <c r="J103" s="297" t="s">
+      <c r="I103" s="325"/>
+      <c r="J103" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K103" s="297"/>
+      <c r="K103" s="314"/>
       <c r="L103" s="219" t="s">
         <v>257</v>
       </c>
@@ -18970,14 +18970,14 @@
       <c r="G104" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="H104" s="295" t="s">
+      <c r="H104" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I104" s="307"/>
-      <c r="J104" s="297" t="s">
+      <c r="I104" s="325"/>
+      <c r="J104" s="314" t="s">
         <v>565</v>
       </c>
-      <c r="K104" s="297"/>
+      <c r="K104" s="314"/>
       <c r="L104" s="219" t="s">
         <v>257</v>
       </c>
@@ -19048,14 +19048,14 @@
       <c r="G105" s="223" t="s">
         <v>142</v>
       </c>
-      <c r="H105" s="295" t="s">
+      <c r="H105" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I105" s="307"/>
-      <c r="J105" s="298" t="s">
+      <c r="I105" s="325"/>
+      <c r="J105" s="321" t="s">
         <v>565</v>
       </c>
-      <c r="K105" s="298"/>
+      <c r="K105" s="321"/>
       <c r="L105" s="219" t="s">
         <v>257</v>
       </c>
@@ -19114,30 +19114,30 @@
       </c>
     </row>
     <row r="106" spans="2:30" s="36" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="B106" s="312" t="s">
+      <c r="B106" s="295" t="s">
         <v>298</v>
       </c>
-      <c r="C106" s="313"/>
-      <c r="D106" s="313"/>
-      <c r="E106" s="313"/>
-      <c r="F106" s="313"/>
-      <c r="G106" s="313"/>
-      <c r="H106" s="313"/>
-      <c r="I106" s="313"/>
-      <c r="J106" s="313"/>
-      <c r="K106" s="313"/>
-      <c r="L106" s="313"/>
-      <c r="M106" s="313"/>
-      <c r="N106" s="313"/>
-      <c r="O106" s="313"/>
-      <c r="P106" s="313"/>
-      <c r="Q106" s="313"/>
-      <c r="R106" s="313"/>
-      <c r="S106" s="313"/>
-      <c r="T106" s="313"/>
-      <c r="U106" s="313"/>
-      <c r="V106" s="313"/>
-      <c r="W106" s="314"/>
+      <c r="C106" s="296"/>
+      <c r="D106" s="296"/>
+      <c r="E106" s="296"/>
+      <c r="F106" s="296"/>
+      <c r="G106" s="296"/>
+      <c r="H106" s="296"/>
+      <c r="I106" s="296"/>
+      <c r="J106" s="296"/>
+      <c r="K106" s="296"/>
+      <c r="L106" s="296"/>
+      <c r="M106" s="296"/>
+      <c r="N106" s="296"/>
+      <c r="O106" s="296"/>
+      <c r="P106" s="296"/>
+      <c r="Q106" s="296"/>
+      <c r="R106" s="296"/>
+      <c r="S106" s="296"/>
+      <c r="T106" s="296"/>
+      <c r="U106" s="296"/>
+      <c r="V106" s="296"/>
+      <c r="W106" s="298"/>
       <c r="X106" s="50"/>
       <c r="Y106" s="121"/>
       <c r="Z106" s="121"/>
@@ -19163,14 +19163,14 @@
       <c r="G107" s="205" t="s">
         <v>478</v>
       </c>
-      <c r="H107" s="299" t="s">
+      <c r="H107" s="322" t="s">
         <v>471</v>
       </c>
-      <c r="I107" s="300"/>
-      <c r="J107" s="299" t="s">
+      <c r="I107" s="323"/>
+      <c r="J107" s="322" t="s">
         <v>565</v>
       </c>
-      <c r="K107" s="300"/>
+      <c r="K107" s="323"/>
       <c r="L107" s="69" t="s">
         <v>257</v>
       </c>
@@ -19243,14 +19243,14 @@
       <c r="G108" s="205" t="s">
         <v>478</v>
       </c>
-      <c r="H108" s="295" t="s">
+      <c r="H108" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I108" s="296"/>
-      <c r="J108" s="295" t="s">
+      <c r="I108" s="328"/>
+      <c r="J108" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="K108" s="296"/>
+      <c r="K108" s="328"/>
       <c r="L108" s="48" t="s">
         <v>257</v>
       </c>
@@ -19323,14 +19323,14 @@
       <c r="G109" s="205" t="s">
         <v>478</v>
       </c>
-      <c r="H109" s="295" t="s">
+      <c r="H109" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I109" s="296"/>
-      <c r="J109" s="295" t="s">
+      <c r="I109" s="328"/>
+      <c r="J109" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="K109" s="296"/>
+      <c r="K109" s="328"/>
       <c r="L109" s="48" t="s">
         <v>257</v>
       </c>
@@ -19405,14 +19405,14 @@
       <c r="G110" s="205" t="s">
         <v>478</v>
       </c>
-      <c r="H110" s="295" t="s">
+      <c r="H110" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I110" s="296"/>
-      <c r="J110" s="295" t="s">
+      <c r="I110" s="328"/>
+      <c r="J110" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="K110" s="296"/>
+      <c r="K110" s="328"/>
       <c r="L110" s="48" t="s">
         <v>257</v>
       </c>
@@ -19489,14 +19489,14 @@
       <c r="G111" s="205" t="s">
         <v>478</v>
       </c>
-      <c r="H111" s="295" t="s">
+      <c r="H111" s="324" t="s">
         <v>471</v>
       </c>
-      <c r="I111" s="296"/>
-      <c r="J111" s="295" t="s">
+      <c r="I111" s="328"/>
+      <c r="J111" s="324" t="s">
         <v>565</v>
       </c>
-      <c r="K111" s="296"/>
+      <c r="K111" s="328"/>
       <c r="L111" s="48" t="s">
         <v>257</v>
       </c>
@@ -19556,19 +19556,187 @@
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="B15:W15"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B1:W5"/>
     <mergeCell ref="R13:R14"/>
     <mergeCell ref="B106:W106"/>
@@ -19593,187 +19761,19 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="B15:W15"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="O107:O111 O16:O29 O31:O105">
@@ -19896,28 +19896,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:37" ht="12.75" customHeight="1">
-      <c r="B2" s="323" t="s">
+      <c r="B2" s="315" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="324"/>
-      <c r="D2" s="325"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="317"/>
       <c r="E2" s="194">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:37" ht="12.75" customHeight="1">
-      <c r="B3" s="323" t="s">
+      <c r="B3" s="315" t="s">
         <v>396</v>
       </c>
-      <c r="C3" s="324"/>
-      <c r="D3" s="325"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="319" t="s">
         <v>379</v>
       </c>
-      <c r="I3" s="328"/>
+      <c r="I3" s="320"/>
       <c r="J3" s="193">
         <f>COUNTIF($N$12:$N$168,"Si")</f>
         <v>17</v>
@@ -19943,18 +19943,18 @@
       </c>
     </row>
     <row r="4" spans="2:37" ht="12" customHeight="1">
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="315" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="324"/>
-      <c r="D4" s="325"/>
+      <c r="C4" s="316"/>
+      <c r="D4" s="317"/>
       <c r="E4" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="327" t="s">
+      <c r="H4" s="319" t="s">
         <v>380</v>
       </c>
-      <c r="I4" s="328"/>
+      <c r="I4" s="320"/>
       <c r="J4" s="193">
         <f>COUNTIF($N$12:$N$168,"No")</f>
         <v>2</v>
@@ -19988,18 +19988,18 @@
       </c>
     </row>
     <row r="5" spans="2:37" ht="12.75" customHeight="1">
-      <c r="B5" s="323" t="s">
+      <c r="B5" s="315" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="324"/>
-      <c r="D5" s="325"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="195">
         <v>39696</v>
       </c>
-      <c r="H5" s="327" t="s">
+      <c r="H5" s="319" t="s">
         <v>381</v>
       </c>
-      <c r="I5" s="328"/>
+      <c r="I5" s="320"/>
       <c r="J5" s="193">
         <f>COUNTIF($N$14:$N$168,"NA")</f>
         <v>1</v>
@@ -20033,11 +20033,11 @@
       </c>
     </row>
     <row r="6" spans="2:37" ht="12.75" customHeight="1">
-      <c r="B6" s="323" t="s">
+      <c r="B6" s="315" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="324"/>
-      <c r="D6" s="325"/>
+      <c r="C6" s="316"/>
+      <c r="D6" s="317"/>
       <c r="E6" s="194" t="s">
         <v>331</v>
       </c>
@@ -20151,65 +20151,65 @@
       </c>
     </row>
     <row r="9" spans="2:37" ht="14.25" customHeight="1">
-      <c r="B9" s="329" t="s">
+      <c r="B9" s="301" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="329" t="s">
+      <c r="C9" s="301" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="333" t="s">
+      <c r="D9" s="335" t="s">
         <v>382</v>
       </c>
-      <c r="E9" s="333"/>
+      <c r="E9" s="335"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="331" t="s">
+      <c r="G9" s="306" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="333" t="s">
+      <c r="H9" s="335" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="333"/>
-      <c r="J9" s="329" t="s">
+      <c r="I9" s="335"/>
+      <c r="J9" s="301" t="s">
         <v>145</v>
       </c>
-      <c r="K9" s="329" t="s">
+      <c r="K9" s="301" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="329" t="s">
+      <c r="L9" s="301" t="s">
         <v>256</v>
       </c>
-      <c r="M9" s="329" t="s">
+      <c r="M9" s="301" t="s">
         <v>329</v>
       </c>
-      <c r="N9" s="329" t="s">
+      <c r="N9" s="301" t="s">
         <v>258</v>
       </c>
-      <c r="O9" s="329"/>
-      <c r="P9" s="329" t="s">
+      <c r="O9" s="301"/>
+      <c r="P9" s="301" t="s">
         <v>378</v>
       </c>
-      <c r="Q9" s="329" t="s">
+      <c r="Q9" s="301" t="s">
         <v>146</v>
       </c>
-      <c r="R9" s="329" t="s">
+      <c r="R9" s="301" t="s">
         <v>137</v>
       </c>
-      <c r="S9" s="329" t="s">
+      <c r="S9" s="301" t="s">
         <v>138</v>
       </c>
-      <c r="T9" s="329" t="s">
+      <c r="T9" s="301" t="s">
         <v>139</v>
       </c>
-      <c r="U9" s="329" t="s">
+      <c r="U9" s="301" t="s">
         <v>147</v>
       </c>
-      <c r="V9" s="329" t="s">
+      <c r="V9" s="301" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="10" spans="2:37" ht="24" customHeight="1" thickBot="1">
-      <c r="B10" s="310"/>
-      <c r="C10" s="310"/>
+      <c r="B10" s="299"/>
+      <c r="C10" s="299"/>
       <c r="D10" s="67" t="s">
         <v>122</v>
       </c>
@@ -20219,26 +20219,26 @@
       <c r="F10" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="332"/>
+      <c r="G10" s="307"/>
       <c r="H10" s="67" t="s">
         <v>122</v>
       </c>
       <c r="I10" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="J10" s="310"/>
-      <c r="K10" s="310"/>
-      <c r="L10" s="310"/>
-      <c r="M10" s="310"/>
-      <c r="N10" s="310"/>
-      <c r="O10" s="310"/>
-      <c r="P10" s="310"/>
-      <c r="Q10" s="310"/>
-      <c r="R10" s="310"/>
-      <c r="S10" s="310"/>
-      <c r="T10" s="310"/>
-      <c r="U10" s="310"/>
-      <c r="V10" s="310"/>
+      <c r="J10" s="299"/>
+      <c r="K10" s="299"/>
+      <c r="L10" s="299"/>
+      <c r="M10" s="299"/>
+      <c r="N10" s="299"/>
+      <c r="O10" s="299"/>
+      <c r="P10" s="299"/>
+      <c r="Q10" s="299"/>
+      <c r="R10" s="299"/>
+      <c r="S10" s="299"/>
+      <c r="T10" s="299"/>
+      <c r="U10" s="299"/>
+      <c r="V10" s="299"/>
       <c r="X10" s="120" t="s">
         <v>142</v>
       </c>
@@ -25661,12 +25661,12 @@
       </c>
     </row>
     <row r="81" spans="2:29" s="36" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B81" s="334" t="s">
+      <c r="B81" s="333" t="s">
         <v>389</v>
       </c>
-      <c r="C81" s="335"/>
-      <c r="D81" s="335"/>
-      <c r="E81" s="335"/>
+      <c r="C81" s="334"/>
+      <c r="D81" s="334"/>
+      <c r="E81" s="334"/>
       <c r="F81" s="102"/>
       <c r="G81" s="102"/>
       <c r="H81" s="102"/>
@@ -32541,6 +32541,16 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B81:E81"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="R9:R10"/>
@@ -32557,16 +32567,6 @@
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="O156:O168 O48:O80 O82:O154 O12:O46">
@@ -32666,28 +32666,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:37" ht="12.75" customHeight="1">
-      <c r="B2" s="323" t="s">
+      <c r="B2" s="315" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="324"/>
-      <c r="D2" s="325"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="317"/>
       <c r="E2" s="194">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:37" ht="12.75" customHeight="1">
-      <c r="B3" s="323" t="s">
+      <c r="B3" s="315" t="s">
         <v>396</v>
       </c>
-      <c r="C3" s="324"/>
-      <c r="D3" s="325"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="319" t="s">
         <v>379</v>
       </c>
-      <c r="I3" s="328"/>
+      <c r="I3" s="320"/>
       <c r="J3" s="193">
         <f>COUNTIF($N$12:$N$168,"Si")</f>
         <v>17</v>
@@ -32713,18 +32713,18 @@
       </c>
     </row>
     <row r="4" spans="2:37" ht="12" customHeight="1">
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="315" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="324"/>
-      <c r="D4" s="325"/>
+      <c r="C4" s="316"/>
+      <c r="D4" s="317"/>
       <c r="E4" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="327" t="s">
+      <c r="H4" s="319" t="s">
         <v>380</v>
       </c>
-      <c r="I4" s="328"/>
+      <c r="I4" s="320"/>
       <c r="J4" s="193">
         <f>COUNTIF($N$12:$N$168,"No")</f>
         <v>2</v>
@@ -32758,18 +32758,18 @@
       </c>
     </row>
     <row r="5" spans="2:37" ht="12.75" customHeight="1">
-      <c r="B5" s="323" t="s">
+      <c r="B5" s="315" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="324"/>
-      <c r="D5" s="325"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="195">
         <v>39696</v>
       </c>
-      <c r="H5" s="327" t="s">
+      <c r="H5" s="319" t="s">
         <v>381</v>
       </c>
-      <c r="I5" s="328"/>
+      <c r="I5" s="320"/>
       <c r="J5" s="193">
         <f>COUNTIF($N$14:$N$168,"NA")</f>
         <v>1</v>
@@ -32803,11 +32803,11 @@
       </c>
     </row>
     <row r="6" spans="2:37" ht="12.75" customHeight="1">
-      <c r="B6" s="323" t="s">
+      <c r="B6" s="315" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="324"/>
-      <c r="D6" s="325"/>
+      <c r="C6" s="316"/>
+      <c r="D6" s="317"/>
       <c r="E6" s="194" t="s">
         <v>376</v>
       </c>
@@ -32921,65 +32921,65 @@
       </c>
     </row>
     <row r="9" spans="2:37" ht="14.25" customHeight="1">
-      <c r="B9" s="329" t="s">
+      <c r="B9" s="301" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="329" t="s">
+      <c r="C9" s="301" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="333" t="s">
+      <c r="D9" s="335" t="s">
         <v>382</v>
       </c>
-      <c r="E9" s="333"/>
+      <c r="E9" s="335"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="331" t="s">
+      <c r="G9" s="306" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="333" t="s">
+      <c r="H9" s="335" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="333"/>
-      <c r="J9" s="329" t="s">
+      <c r="I9" s="335"/>
+      <c r="J9" s="301" t="s">
         <v>145</v>
       </c>
-      <c r="K9" s="329" t="s">
+      <c r="K9" s="301" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="329" t="s">
+      <c r="L9" s="301" t="s">
         <v>256</v>
       </c>
-      <c r="M9" s="329" t="s">
+      <c r="M9" s="301" t="s">
         <v>329</v>
       </c>
-      <c r="N9" s="329" t="s">
+      <c r="N9" s="301" t="s">
         <v>258</v>
       </c>
-      <c r="O9" s="329"/>
-      <c r="P9" s="329" t="s">
+      <c r="O9" s="301"/>
+      <c r="P9" s="301" t="s">
         <v>378</v>
       </c>
-      <c r="Q9" s="329" t="s">
+      <c r="Q9" s="301" t="s">
         <v>146</v>
       </c>
-      <c r="R9" s="329" t="s">
+      <c r="R9" s="301" t="s">
         <v>137</v>
       </c>
-      <c r="S9" s="329" t="s">
+      <c r="S9" s="301" t="s">
         <v>138</v>
       </c>
-      <c r="T9" s="329" t="s">
+      <c r="T9" s="301" t="s">
         <v>139</v>
       </c>
-      <c r="U9" s="329" t="s">
+      <c r="U9" s="301" t="s">
         <v>147</v>
       </c>
-      <c r="V9" s="329" t="s">
+      <c r="V9" s="301" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="10" spans="2:37" ht="24" customHeight="1" thickBot="1">
-      <c r="B10" s="310"/>
-      <c r="C10" s="310"/>
+      <c r="B10" s="299"/>
+      <c r="C10" s="299"/>
       <c r="D10" s="67" t="s">
         <v>122</v>
       </c>
@@ -32989,26 +32989,26 @@
       <c r="F10" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="332"/>
+      <c r="G10" s="307"/>
       <c r="H10" s="67" t="s">
         <v>122</v>
       </c>
       <c r="I10" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="J10" s="310"/>
-      <c r="K10" s="310"/>
-      <c r="L10" s="310"/>
-      <c r="M10" s="310"/>
-      <c r="N10" s="310"/>
-      <c r="O10" s="310"/>
-      <c r="P10" s="310"/>
-      <c r="Q10" s="310"/>
-      <c r="R10" s="310"/>
-      <c r="S10" s="310"/>
-      <c r="T10" s="310"/>
-      <c r="U10" s="310"/>
-      <c r="V10" s="310"/>
+      <c r="J10" s="299"/>
+      <c r="K10" s="299"/>
+      <c r="L10" s="299"/>
+      <c r="M10" s="299"/>
+      <c r="N10" s="299"/>
+      <c r="O10" s="299"/>
+      <c r="P10" s="299"/>
+      <c r="Q10" s="299"/>
+      <c r="R10" s="299"/>
+      <c r="S10" s="299"/>
+      <c r="T10" s="299"/>
+      <c r="U10" s="299"/>
+      <c r="V10" s="299"/>
       <c r="X10" s="120" t="s">
         <v>142</v>
       </c>
@@ -38431,12 +38431,12 @@
       </c>
     </row>
     <row r="81" spans="2:29" s="36" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B81" s="334" t="s">
+      <c r="B81" s="333" t="s">
         <v>389</v>
       </c>
-      <c r="C81" s="335"/>
-      <c r="D81" s="335"/>
-      <c r="E81" s="335"/>
+      <c r="C81" s="334"/>
+      <c r="D81" s="334"/>
+      <c r="E81" s="334"/>
       <c r="F81" s="102"/>
       <c r="G81" s="102"/>
       <c r="H81" s="102"/>
@@ -45306,18 +45306,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="G9:G10"/>
     <mergeCell ref="B81:E81"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="R9:R10"/>
@@ -45332,6 +45320,18 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="P9:P10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="O156:O168 O48:O80 O82:O154 O12:O46">
@@ -46659,20 +46659,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="344" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="350" t="s">
+      <c r="B2" s="345" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="351"/>
+      <c r="C2" s="346"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7">
@@ -46682,10 +46682,10 @@
         <v>124</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="F3" s="349" t="s">
+      <c r="F3" s="344" t="s">
         <v>594</v>
       </c>
-      <c r="G3" s="349"/>
+      <c r="G3" s="344"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7">
@@ -46726,12 +46726,12 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="349" t="s">
+      <c r="A7" s="344" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="349"/>
-      <c r="C7" s="349"/>
-      <c r="D7" s="349"/>
+      <c r="B7" s="344"/>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
       <c r="F7" s="7">
         <v>3</v>
       </c>
@@ -46743,10 +46743,10 @@
       <c r="A8" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="352" t="s">
+      <c r="B8" s="347" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="353"/>
+      <c r="C8" s="348"/>
       <c r="D8" s="8"/>
       <c r="F8" s="7">
         <v>4</v>
@@ -46829,11 +46829,11 @@
       <c r="H14" s="210"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="344" t="s">
+      <c r="A15" s="349" t="s">
         <v>563</v>
       </c>
-      <c r="B15" s="345"/>
-      <c r="C15" s="346"/>
+      <c r="B15" s="350"/>
+      <c r="C15" s="351"/>
       <c r="F15" s="19" t="s">
         <v>122</v>
       </c>
@@ -46846,10 +46846,10 @@
       <c r="A16" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="347" t="s">
+      <c r="B16" s="352" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="348"/>
+      <c r="C16" s="353"/>
       <c r="F16" s="17">
         <v>1</v>
       </c>
@@ -46930,20 +46930,20 @@
       <c r="C24" s="18"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="344" t="s">
+      <c r="A27" s="349" t="s">
         <v>564</v>
       </c>
-      <c r="B27" s="345"/>
-      <c r="C27" s="346"/>
+      <c r="B27" s="350"/>
+      <c r="C27" s="351"/>
     </row>
     <row r="28" spans="1:8" ht="25.5" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="347" t="s">
+      <c r="B28" s="352" t="s">
         <v>251</v>
       </c>
-      <c r="C28" s="348"/>
+      <c r="C28" s="353"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="17">
@@ -47009,20 +47009,20 @@
       <c r="C35" s="16"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="344" t="s">
+      <c r="A37" s="349" t="s">
         <v>229</v>
       </c>
-      <c r="B37" s="345"/>
-      <c r="C37" s="346"/>
+      <c r="B37" s="350"/>
+      <c r="C37" s="351"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="347" t="s">
+      <c r="B38" s="352" t="s">
         <v>251</v>
       </c>
-      <c r="C38" s="348"/>
+      <c r="C38" s="353"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="17">
@@ -47061,20 +47061,20 @@
       <c r="C42" s="214"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="344" t="s">
+      <c r="A45" s="349" t="s">
         <v>571</v>
       </c>
-      <c r="B45" s="345"/>
-      <c r="C45" s="346"/>
+      <c r="B45" s="350"/>
+      <c r="C45" s="351"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="347" t="s">
+      <c r="B46" s="352" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="348"/>
+      <c r="C46" s="353"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="17">
@@ -47457,11 +47457,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A37:C37"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B38:C38"/>
@@ -47470,6 +47465,11 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
